--- a/biology/Médecine/Digitoxine/Digitoxine.xlsx
+++ b/biology/Médecine/Digitoxine/Digitoxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La digitoxine, aussi appelée digitaline ou digitoxoside est un glycoside cardiotonique extrait de la digitale pourpre (Digitalis purpurea) et de la digitale laineuse (Digitalis lanata). Comme tous les glycosides cardiotoniques, elle est toxique. On l'utilise dans le traitement de diverses affections du cœur comme l'insuffisance cardiaque.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est découverte en 1775 par William Withering, un médecin et botaniste britannique. L'utilisation thérapeutique moderne de cette molécule est rendue possible grâce aux travaux du pharmacien et chimiste français Claude-Adolphe Nativelle qui isole en 1868 la digitaline sous forme cristallisée par purification d'un extrait alcoolique de feuilles de digitale dans le chloroforme[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est découverte en 1775 par William Withering, un médecin et botaniste britannique. L'utilisation thérapeutique moderne de cette molécule est rendue possible grâce aux travaux du pharmacien et chimiste français Claude-Adolphe Nativelle qui isole en 1868 la digitaline sous forme cristallisée par purification d'un extrait alcoolique de feuilles de digitale dans le chloroforme.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut notamment citer :
 renforcement de la contraction cardiaque (action inotrope positive) ;
@@ -582,7 +598,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'épisode du feuilleton radio Les Maîtres du mystère du 29 mai 1962, intitulé « Triste twist », la victime est assassinée à la digitoxine.
 Dans la série Columbo, l'épisode 5 de la saison 9, Couronne mortuaire, la digitaline est l'arme utilisée dans une couronne dentaire introduite par le meurtrier, un dentiste, pour éliminer l'amant de sa femme.
